--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DF17FA-33EC-443A-A5D0-B50DFA842E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9376A-13B6-433D-A560-F01CFDBE27E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -625,6 +625,14 @@
   </si>
   <si>
     <t>titleid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>counter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2016,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2471,25 +2479,33 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">bmi double </v>
+        <v>bmi double ,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">counter varchar </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -3120,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A781E-25A8-4C0D-BBFB-6F0908ECFF4E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3632,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E04B99E-9058-48AC-94FD-19CDF3762936}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9376A-13B6-433D-A560-F01CFDBE27E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E85632-A08B-4E0F-9ABD-78E106DC84F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -633,6 +633,17 @@
   </si>
   <si>
     <t>counter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>訪問数</t>
+    <rPh sb="0" eb="3">
+      <t>ホウモンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visiter</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2024,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3136,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A781E-25A8-4C0D-BBFB-6F0908ECFF4E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3359,16 +3370,22 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">date String </v>
+        <v>date String ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3377,7 +3394,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">visiter int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">

--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E85632-A08B-4E0F-9ABD-78E106DC84F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9974593B-B73E-4541-B4DC-EF9959615FF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1519,7 +1519,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1764,16 +1764,22 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">target_weight double </v>
+        <v>target_weight double ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1782,7 +1788,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">visiter int </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3148,7 +3154,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9974593B-B73E-4541-B4DC-EF9959615FF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDECBF-C9FA-4671-AC99-6DF44DA7F193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="850" yWindow="380" windowWidth="16730" windowHeight="8560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -643,7 +643,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>visiter</t>
+    <t>cpointの削除</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>visitor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1518,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17784E89-CE2F-4E13-970F-BFBBF728D048}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1764,22 +1771,16 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v>target_weight double ,</v>
+        <v xml:space="preserve">target_weight double </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1788,7 +1789,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">visiter int </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2041,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2460,9 +2461,11 @@
         <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E22" s="3">
+        <v>255</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2470,7 +2473,7 @@
       <c r="J22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v>picture String ,</v>
+        <v>picture varchar (255),</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2650,7 +2653,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3154,7 +3157,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3184,6 +3187,9 @@
         <v>2</v>
       </c>
       <c r="E2" s="3"/>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3336,13 +3342,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3352,7 +3358,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>cpoint int ,</v>
+        <v>date varchar ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3360,13 +3366,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3376,22 +3382,16 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>date String ,</v>
+        <v xml:space="preserve">visitor int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3399,8 +3399,8 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">visiter int </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3671,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E04B99E-9058-48AC-94FD-19CDF3762936}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3780,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
@@ -3828,7 +3828,7 @@
         <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3837,7 +3837,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>titlename String ,</v>
+        <v>titlename varchar ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3851,7 +3851,7 @@
         <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3861,7 +3861,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">titleimage String </v>
+        <v xml:space="preserve">titleimage varchar </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">

--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FDECBF-C9FA-4671-AC99-6DF44DA7F193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D1763-31A1-45F3-9E89-7B6041F117B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="380" windowWidth="16730" windowHeight="8560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -651,6 +651,28 @@
   </si>
   <si>
     <t>visitor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板ID</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbsid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理番号</t>
+    <rPh sb="0" eb="4">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mngid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2042,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2156,9 +2178,7 @@
       <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2182,9 +2202,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2525,25 +2543,35 @@
       <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">counter varchar </v>
+        <v>counter varchar ,</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">mngid int </v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3157,7 +3185,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3273,15 +3301,13 @@
       <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>user_id varchar (12),</v>
       </c>
     </row>
@@ -3307,7 +3333,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>name varchar (20),</v>
       </c>
     </row>
@@ -3333,7 +3359,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>chattext varchar (200),</v>
       </c>
     </row>
@@ -3357,7 +3383,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>date varchar ,</v>
       </c>
     </row>
@@ -3381,26 +3407,36 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">visitor int </v>
+        <f t="shared" si="0"/>
+        <v>visitor int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">bbsid int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3417,7 +3453,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L15:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3435,7 +3471,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3453,7 +3489,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3471,7 +3507,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3489,7 +3525,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3507,7 +3543,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3525,7 +3561,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3543,7 +3579,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3561,7 +3597,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3579,7 +3615,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3597,7 +3633,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3615,7 +3651,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3633,7 +3669,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3651,7 +3687,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
+++ b/共有用フォルダー/20230614講師レビュー通過/04_DB定義書_そばうどん.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\20230614講師レビュー通過\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2D1763-31A1-45F3-9E89-7B6041F117B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7600304-616E-408A-9616-FA9D4DBEE80C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1530" yWindow="1060" windowWidth="16730" windowHeight="8560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -3184,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A781E-25A8-4C0D-BBFB-6F0908ECFF4E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
